--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
@@ -9,17 +9,20 @@
   <sheets>
     <sheet name="By_Track_YouTube" sheetId="1" r:id="rId1"/>
     <sheet name="By_Track_1001Tracklists" sheetId="2" r:id="rId2"/>
-    <sheet name="By_Artist_YouTube" sheetId="3" r:id="rId3"/>
-    <sheet name="By_Artist_1001Tracklists" sheetId="4" r:id="rId4"/>
-    <sheet name="By_Label_YouTube" sheetId="5" r:id="rId5"/>
-    <sheet name="By_Label_1001Tracklists" sheetId="6" r:id="rId6"/>
+    <sheet name="By_Track_Soundcloud" sheetId="3" r:id="rId3"/>
+    <sheet name="By_Artist_YouTube" sheetId="4" r:id="rId4"/>
+    <sheet name="By_Artist_1001Tracklists" sheetId="5" r:id="rId5"/>
+    <sheet name="By_Artist_Soundcloud" sheetId="6" r:id="rId6"/>
+    <sheet name="By_Label_YouTube" sheetId="7" r:id="rId7"/>
+    <sheet name="By_Label_1001Tracklists" sheetId="8" r:id="rId8"/>
+    <sheet name="By_Label_Soundcloud" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="129">
   <si>
     <t>Artist</t>
   </si>
@@ -36,6 +39,9 @@
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
+    <t>Porter Robinson</t>
+  </si>
+  <si>
     <t>Castion</t>
   </si>
   <si>
@@ -48,55 +54,91 @@
     <t>Rosenfeld</t>
   </si>
   <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
     <t>Aspyer</t>
   </si>
   <si>
+    <t>Saint Punk</t>
+  </si>
+  <si>
+    <t>WbToys</t>
+  </si>
+  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
-    <t>Camellia</t>
-  </si>
-  <si>
     <t>Julian Jordan</t>
   </si>
   <si>
-    <t>WbToys</t>
-  </si>
-  <si>
-    <t>DubVision</t>
+    <t>Misfit</t>
+  </si>
+  <si>
+    <t>Polygon, Martin Jasper</t>
+  </si>
+  <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
+    <t>Maurice Lessing</t>
+  </si>
+  <si>
+    <t>Lulleaux</t>
+  </si>
+  <si>
+    <t>Jaxxwell, Hardwell, Blasterjaxx</t>
+  </si>
+  <si>
+    <t>Dr Phunk, Diandra Faye</t>
+  </si>
+  <si>
+    <t>NUZB</t>
+  </si>
+  <si>
+    <t>Body Ocean</t>
+  </si>
+  <si>
+    <t>Mo Falk</t>
+  </si>
+  <si>
+    <t>REGGIO, Rave Republic</t>
+  </si>
+  <si>
+    <t>Julian Calor, Aiobahn</t>
+  </si>
+  <si>
+    <t>MR.BLACK, Offer Nissim, Chester Young</t>
+  </si>
+  <si>
+    <t>RAMSSEY</t>
+  </si>
+  <si>
+    <t>DJ St3v3, Sebastian Mateo</t>
+  </si>
+  <si>
+    <t>Slippy</t>
+  </si>
+  <si>
+    <t>D3EPANK</t>
+  </si>
+  <si>
+    <t>DNVX</t>
+  </si>
+  <si>
+    <t>Deekey</t>
+  </si>
+  <si>
+    <t>Lady Bee, Dame1</t>
   </si>
   <si>
     <t>Lost Identities, Anna Vellington</t>
   </si>
   <si>
-    <t>Polygon, Martin Jasper</t>
-  </si>
-  <si>
-    <t>Malarkey</t>
-  </si>
-  <si>
-    <t>Lulleaux</t>
-  </si>
-  <si>
-    <t>Jaxxwell, Hardwell, Blasterjaxx</t>
-  </si>
-  <si>
-    <t>Julian Calor, Aiobahn</t>
-  </si>
-  <si>
-    <t>Mo Falk</t>
-  </si>
-  <si>
-    <t>REGGIO, Rave Republic</t>
-  </si>
-  <si>
-    <t>RAMSSEY</t>
-  </si>
-  <si>
-    <t>Slippy</t>
-  </si>
-  <si>
-    <t>DNVX</t>
+    <t>Rezilient</t>
+  </si>
+  <si>
+    <t>Loot At The Sky</t>
   </si>
   <si>
     <t>Banger Machine</t>
@@ -111,60 +153,96 @@
     <t>Dangerous Woman</t>
   </si>
   <si>
+    <t>Closer</t>
+  </si>
+  <si>
     <t>Symphony</t>
   </si>
   <si>
+    <t>Empty Bed</t>
+  </si>
+  <si>
+    <t>Let Me Love You</t>
+  </si>
+  <si>
     <t>Stay</t>
   </si>
   <si>
-    <t>PURE SILVER</t>
-  </si>
-  <si>
     <t>Big Bad Bass</t>
   </si>
   <si>
-    <t>Let Me Love You</t>
-  </si>
-  <si>
-    <t>Deeper</t>
+    <t>Mirage</t>
+  </si>
+  <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
+    <t>Shackles (Praise You)</t>
+  </si>
+  <si>
+    <t>Never Let You Go</t>
+  </si>
+  <si>
+    <t>Even If You Don't</t>
+  </si>
+  <si>
+    <t>Bootshaus ID</t>
+  </si>
+  <si>
+    <t>Firebomb</t>
+  </si>
+  <si>
+    <t>Nighttime</t>
+  </si>
+  <si>
+    <t>Once The Music</t>
+  </si>
+  <si>
+    <t>I'm Back</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>Moving Foward (Aiobahn Remix)</t>
+  </si>
+  <si>
+    <t>Mucho Bien (Chester Young Remix)</t>
+  </si>
+  <si>
+    <t>Anubis</t>
+  </si>
+  <si>
+    <t>So Sexy</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Eternally</t>
+  </si>
+  <si>
+    <t>Losing Control</t>
+  </si>
+  <si>
+    <t>Without You</t>
+  </si>
+  <si>
+    <t>Soon Not Later</t>
   </si>
   <si>
     <t>Any Other Way</t>
   </si>
   <si>
-    <t>Coming Home</t>
-  </si>
-  <si>
-    <t>Shackles (Praise You)</t>
-  </si>
-  <si>
-    <t>Even If You Don't</t>
-  </si>
-  <si>
-    <t>Bootshaus ID</t>
-  </si>
-  <si>
-    <t>Moving Foward (Aiobahn Remix)</t>
-  </si>
-  <si>
-    <t>I'm Back</t>
-  </si>
-  <si>
-    <t>Legacy</t>
-  </si>
-  <si>
-    <t>Anubis</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Losing Control</t>
+    <t>Positive Reaction</t>
   </si>
   <si>
     <t>NCS</t>
   </si>
   <si>
+    <t>MOM+POP</t>
+  </si>
+  <si>
     <t>mau5trap</t>
   </si>
   <si>
@@ -174,15 +252,18 @@
     <t>WLTD Entertainment LTD</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
     <t>HEXAGON, GenerationHEX</t>
   </si>
   <si>
+    <t>BreadnButter, Trap City</t>
+  </si>
+  <si>
     <t>Liquicity</t>
   </si>
   <si>
@@ -192,19 +273,40 @@
     <t>Revealed Recordings</t>
   </si>
   <si>
+    <t>Revealed Recordins</t>
+  </si>
+  <si>
     <t>Tribal Trap</t>
   </si>
   <si>
+    <t>Revealed Recordings, Revealed Radar</t>
+  </si>
+  <si>
     <t>Dim Mak, Dim Mak New Noise</t>
   </si>
   <si>
+    <t>Future House Cloud, FHC Selection</t>
+  </si>
+  <si>
     <t>Future House Cloud</t>
   </si>
   <si>
+    <t>Mixmash Recorsds</t>
+  </si>
+  <si>
+    <t>Lost World</t>
+  </si>
+  <si>
+    <t>Galacy, Liquicity</t>
+  </si>
+  <si>
+    <t>1001T_Supports</t>
+  </si>
+  <si>
     <t>1001T_TotPlays</t>
   </si>
   <si>
-    <t>1001T_Supports</t>
+    <t>Soundcloud_Plays</t>
   </si>
   <si>
     <t>Arlow</t>
@@ -225,46 +327,88 @@
     <t>TYNAN</t>
   </si>
   <si>
+    <t>Martin Jasper</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Blasterjaxx</t>
+  </si>
+  <si>
+    <t>Hardwell</t>
+  </si>
+  <si>
+    <t>Jaxxwell</t>
+  </si>
+  <si>
+    <t>Diandra Faye</t>
+  </si>
+  <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
+    <t>REGGIO</t>
+  </si>
+  <si>
+    <t>Rave Republic</t>
+  </si>
+  <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Julian Calor</t>
+  </si>
+  <si>
+    <t>Chester Young</t>
+  </si>
+  <si>
+    <t>MR.BLACK</t>
+  </si>
+  <si>
+    <t>Offer Nissim</t>
+  </si>
+  <si>
+    <t>DJ St3v3</t>
+  </si>
+  <si>
+    <t>Sebastian Mateo</t>
+  </si>
+  <si>
+    <t>Dame1</t>
+  </si>
+  <si>
+    <t>Lady Bee</t>
+  </si>
+  <si>
     <t>Anna Vellington</t>
   </si>
   <si>
     <t>Lost Identities</t>
   </si>
   <si>
-    <t>Martin Jasper</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Blasterjaxx</t>
-  </si>
-  <si>
-    <t>Hardwell</t>
-  </si>
-  <si>
-    <t>Jaxxwell</t>
-  </si>
-  <si>
-    <t>Aiobahn</t>
-  </si>
-  <si>
-    <t>Julian Calor</t>
-  </si>
-  <si>
-    <t>REGGIO</t>
-  </si>
-  <si>
-    <t>Rave Republic</t>
-  </si>
-  <si>
     <t>GenerationHEX</t>
   </si>
   <si>
+    <t>BreadnButter</t>
+  </si>
+  <si>
+    <t>Trap City</t>
+  </si>
+  <si>
+    <t>Revealed Radar</t>
+  </si>
+  <si>
     <t>Dim Mak</t>
   </si>
   <si>
     <t>Dim Mak New Noise</t>
+  </si>
+  <si>
+    <t>FHC Selection</t>
+  </si>
+  <si>
+    <t>Galacy</t>
   </si>
 </sst>
 </file>
@@ -622,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,10 +794,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>811712</v>
+        <v>1014945</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -661,13 +805,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>701178</v>
+        <v>960328</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -675,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>575075</v>
+        <v>797626</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -689,13 +833,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>200593</v>
+        <v>691721</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -703,13 +847,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>158019</v>
+        <v>248228</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -717,13 +861,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>91569</v>
+        <v>198961</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -731,13 +875,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>74236</v>
+        <v>166391</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -745,13 +889,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>72812</v>
+        <v>142951</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -759,13 +903,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>62534</v>
+        <v>109098</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -773,13 +917,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>60334</v>
+        <v>94908</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -787,13 +931,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>45169</v>
+        <v>94026</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -801,13 +945,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>43189</v>
+        <v>87831</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -815,13 +959,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>30232</v>
+        <v>64099</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -829,13 +973,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>26019</v>
+        <v>36189</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -843,13 +987,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>21085</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -857,13 +1001,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>20339</v>
+        <v>27397</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -871,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>13987</v>
+        <v>26775</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -885,13 +1029,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D19">
-        <v>13111</v>
+        <v>25799</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -899,13 +1043,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D20">
-        <v>11819</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -913,13 +1057,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D21">
-        <v>6008</v>
+        <v>22464</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -927,13 +1071,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>4313</v>
+        <v>18991</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -941,13 +1085,181 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>18493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="D23">
-        <v>3363</v>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>16447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>15492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -974,383 +1286,587 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
       <c r="E4">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1877,510 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>74973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>64842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>41864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>41077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>25894</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>22840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>17219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>13641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>11547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>11521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1377,18 +2396,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B2">
-        <v>811712</v>
+        <v>1014945</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B3">
-        <v>811712</v>
+        <v>1014945</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1396,31 +2415,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>701178</v>
+        <v>960328</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>575075</v>
+        <v>797626</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>575075</v>
+        <v>691721</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>200593</v>
+        <v>691721</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1428,7 +2447,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>158019</v>
+        <v>248228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1436,191 +2455,327 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>91569</v>
+        <v>198961</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>74236</v>
+        <v>166391</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>74236</v>
+        <v>142951</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>72812</v>
+        <v>109098</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>62534</v>
+        <v>94908</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>60334</v>
+        <v>94026</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>45169</v>
+        <v>94026</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>43189</v>
+        <v>87831</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>43189</v>
+        <v>64099</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B18">
-        <v>30232</v>
+        <v>36189</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B19">
-        <v>30232</v>
+        <v>36189</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>26019</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>21085</v>
+        <v>27397</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>20339</v>
+        <v>26775</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B23">
-        <v>20339</v>
+        <v>25799</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B24">
-        <v>20339</v>
+        <v>25799</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B25">
-        <v>13987</v>
+        <v>25799</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B26">
-        <v>13987</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B27">
-        <v>13111</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>11819</v>
+        <v>22464</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>11819</v>
+        <v>18991</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>6008</v>
+        <v>18493</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B31">
-        <v>4313</v>
+        <v>16447</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B32">
-        <v>3363</v>
+        <v>16447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>15492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>15492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -1628,9 +2783,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1641,350 +2796,537 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
       <c r="C28">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
     </row>
@@ -1993,9 +3335,414 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>74973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>74973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>64842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>41864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>41077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>25894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>22840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>22840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>17219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>13641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>11547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>11521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2011,106 +3758,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>1512890</v>
+        <v>1812571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>575075</v>
+        <v>960328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>213259</v>
+        <v>691721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B5">
-        <v>158019</v>
+        <v>369515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>120549</v>
+        <v>287729</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>74236</v>
+        <v>199772</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8">
-        <v>60334</v>
+        <v>198961</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B9">
-        <v>32158</v>
+        <v>122305</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>30232</v>
+        <v>75564</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B11">
-        <v>6008</v>
+        <v>64099</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B12">
-        <v>4313</v>
+        <v>64099</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>4313</v>
+        <v>36744</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B14">
-        <v>3363</v>
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>8273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>7719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -2118,9 +3937,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,153 +3950,449 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
         <v>48</v>
       </c>
-      <c r="B5">
-        <v>26</v>
-      </c>
       <c r="C5">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>157914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>64842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>48734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>25943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>13151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="153">
   <si>
     <t>Artist</t>
   </si>
@@ -36,18 +36,21 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Porter Robinson</t>
+  </si>
+  <si>
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
-    <t>Porter Robinson</t>
-  </si>
-  <si>
     <t>Castion</t>
   </si>
   <si>
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
+    <t>Armin van Buuren</t>
+  </si>
+  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
@@ -69,30 +72,48 @@
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
+    <t>Camellia</t>
+  </si>
+  <si>
     <t>Julian Jordan</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Misfit</t>
   </si>
   <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
+    <t>DubVision</t>
+  </si>
+  <si>
+    <t>Matt Nash, Lucas Marx</t>
+  </si>
+  <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
     <t>Malarkey</t>
   </si>
   <si>
+    <t>Lulleaux</t>
+  </si>
+  <si>
+    <t>Dr Phunk, Diandra Faye</t>
+  </si>
+  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
-    <t>Lulleaux</t>
-  </si>
-  <si>
     <t>Jaxxwell, Hardwell, Blasterjaxx</t>
   </si>
   <si>
-    <t>Dr Phunk, Diandra Faye</t>
-  </si>
-  <si>
     <t>NUZB</t>
   </si>
   <si>
@@ -138,7 +159,10 @@
     <t>Rezilient</t>
   </si>
   <si>
-    <t>Loot At The Sky</t>
+    <t>Jonth, Cassidy Mackenzie</t>
+  </si>
+  <si>
+    <t>Look At The Sky</t>
   </si>
   <si>
     <t>Banger Machine</t>
@@ -147,6 +171,9 @@
     <t>Channel 43</t>
   </si>
   <si>
+    <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
+  </si>
+  <si>
     <t>Wraith</t>
   </si>
   <si>
@@ -168,30 +195,48 @@
     <t>Stay</t>
   </si>
   <si>
+    <t>PURE SILVER</t>
+  </si>
+  <si>
     <t>Big Bad Bass</t>
   </si>
   <si>
+    <t>Bonetrousle</t>
+  </si>
+  <si>
     <t>Mirage</t>
   </si>
   <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Deeper</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
     <t>Coming Home</t>
   </si>
   <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
     <t>Shackles (Praise You)</t>
   </si>
   <si>
+    <t>Even If You Don't</t>
+  </si>
+  <si>
+    <t>Firebomb</t>
+  </si>
+  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
-    <t>Even If You Don't</t>
-  </si>
-  <si>
     <t>Bootshaus ID</t>
   </si>
   <si>
-    <t>Firebomb</t>
-  </si>
-  <si>
     <t>Nighttime</t>
   </si>
   <si>
@@ -237,15 +282,21 @@
     <t>Positive Reaction</t>
   </si>
   <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>MOM+POP</t>
+  </si>
+  <si>
     <t>NCS</t>
   </si>
   <si>
-    <t>MOM+POP</t>
-  </si>
-  <si>
     <t>mau5trap</t>
   </si>
   <si>
+    <t>A State Of Trance</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -300,6 +351,9 @@
     <t>Galacy, Liquicity</t>
   </si>
   <si>
+    <t>Discover Records, JompaMusic</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -327,12 +381,24 @@
     <t>TYNAN</t>
   </si>
   <si>
+    <t>Lucas Marx</t>
+  </si>
+  <si>
+    <t>Matt Nash</t>
+  </si>
+  <si>
     <t>Martin Jasper</t>
   </si>
   <si>
     <t>Polygon</t>
   </si>
   <si>
+    <t>Diandra Faye</t>
+  </si>
+  <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
     <t>Blasterjaxx</t>
   </si>
   <si>
@@ -342,12 +408,6 @@
     <t>Jaxxwell</t>
   </si>
   <si>
-    <t>Diandra Faye</t>
-  </si>
-  <si>
-    <t>Dr Phunk</t>
-  </si>
-  <si>
     <t>REGGIO</t>
   </si>
   <si>
@@ -387,6 +447,12 @@
     <t>Lost Identities</t>
   </si>
   <si>
+    <t>Cassidy Mackenzie</t>
+  </si>
+  <si>
+    <t>Jonth</t>
+  </si>
+  <si>
     <t>GenerationHEX</t>
   </si>
   <si>
@@ -409,6 +475,12 @@
   </si>
   <si>
     <t>Galacy</t>
+  </si>
+  <si>
+    <t>Discover Records</t>
+  </si>
+  <si>
+    <t>JompaMusic</t>
   </si>
 </sst>
 </file>
@@ -766,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,28 +862,28 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>21</v>
+      <c r="B2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>1014945</v>
+        <v>1378335</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3">
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>960328</v>
+        <v>1052567</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -819,13 +891,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>797626</v>
+        <v>824605</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -833,13 +905,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>691721</v>
+        <v>728718</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -847,13 +919,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>248228</v>
+        <v>623718</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -861,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>198961</v>
+        <v>261956</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -875,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>166391</v>
+        <v>211627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -889,13 +961,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>142951</v>
+        <v>210865</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -903,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>109098</v>
+        <v>156991</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -917,13 +989,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>94908</v>
+        <v>121049</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -931,13 +1003,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>94026</v>
+        <v>103572</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -945,13 +1017,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D13">
-        <v>87831</v>
+        <v>99916</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -959,13 +1031,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D14">
-        <v>64099</v>
+        <v>94727</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -973,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>36189</v>
+        <v>93681</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -987,13 +1059,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D16">
-        <v>32199</v>
+        <v>75039</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1001,13 +1073,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>27397</v>
+        <v>67727</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1015,13 +1087,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>26775</v>
+        <v>62992</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1029,13 +1101,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D19">
-        <v>25799</v>
+        <v>61387</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1043,13 +1115,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D20">
-        <v>25599</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1057,13 +1129,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D21">
-        <v>22464</v>
+        <v>38137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1071,13 +1143,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>18991</v>
+        <v>37749</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1085,13 +1157,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>18493</v>
+        <v>34477</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1099,13 +1171,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>16447</v>
+        <v>29497</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1113,13 +1185,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D25">
-        <v>15492</v>
+        <v>27885</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1127,13 +1199,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>9010</v>
+        <v>27706</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1141,13 +1213,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D27">
-        <v>7077</v>
+        <v>27083</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1155,13 +1227,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D28">
-        <v>5858</v>
+        <v>23994</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1169,13 +1241,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D29">
-        <v>5050</v>
+        <v>20803</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1183,13 +1255,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D30">
-        <v>4552</v>
+        <v>20152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1197,13 +1269,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>3721</v>
+        <v>17488</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1211,13 +1283,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D32">
-        <v>1861</v>
+        <v>15938</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1225,13 +1297,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>1643</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1239,13 +1311,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D34">
-        <v>733</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1253,13 +1325,125 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>555</v>
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,347 +1470,347 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
       <c r="E6">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1634,166 +1818,166 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1804,13 +1988,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1821,13 +2005,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1838,10 +2022,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>91</v>
@@ -1855,18 +2039,154 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>0</v>
       </c>
     </row>
@@ -1877,7 +2197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1894,483 +2214,595 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>74973</v>
+        <v>79423</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>64842</v>
+        <v>79217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>42589</v>
+        <v>51258</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>41864</v>
+        <v>49566</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>41077</v>
+        <v>46548</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>25894</v>
+        <v>33843</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>22840</v>
+        <v>28561</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>17219</v>
+        <v>28340</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>14028</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>13641</v>
+        <v>19225</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>11547</v>
+        <v>15168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>11521</v>
+        <v>14602</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D14">
-        <v>10428</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>10269</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D16">
-        <v>10190</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>9320</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D18">
-        <v>7143</v>
+        <v>11299</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D19">
-        <v>7023</v>
+        <v>11284</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>6752</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D21">
-        <v>6660</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>6321</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D23">
-        <v>6128</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D24">
-        <v>5785</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D25">
-        <v>5321</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D26">
-        <v>4778</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>4614</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D28">
-        <v>3085</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29">
-        <v>2980</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D30">
-        <v>2834</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>2214</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D32">
-        <v>1166</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>1040</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D34">
-        <v>843</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D35">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
         <v>91</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2812,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2396,26 +2828,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1014945</v>
+        <v>1378335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>1014945</v>
+        <v>1052567</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>960328</v>
+        <v>1052567</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2423,23 +2855,23 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>797626</v>
+        <v>824605</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>691721</v>
+        <v>728718</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>691721</v>
+        <v>728718</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2447,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>248228</v>
+        <v>623718</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2455,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>198961</v>
+        <v>261956</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2463,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>166391</v>
+        <v>211627</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2471,7 +2903,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>142951</v>
+        <v>210865</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2479,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>109098</v>
+        <v>156991</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2487,31 +2919,31 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>94908</v>
+        <v>121049</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>94026</v>
+        <v>103572</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B15">
-        <v>94026</v>
+        <v>99916</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B16">
-        <v>87831</v>
+        <v>99916</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2519,263 +2951,343 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>64099</v>
+        <v>94727</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>36189</v>
+        <v>93681</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>36189</v>
+        <v>75039</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>32199</v>
+        <v>67727</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>27397</v>
+        <v>62992</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>26775</v>
+        <v>61387</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B23">
-        <v>25799</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B24">
-        <v>25799</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B25">
-        <v>25799</v>
+        <v>38137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B26">
-        <v>25599</v>
+        <v>38137</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>25599</v>
+        <v>37749</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>22464</v>
+        <v>34477</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>18991</v>
+        <v>29497</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B30">
-        <v>18493</v>
+        <v>27885</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B31">
-        <v>16447</v>
+        <v>27885</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>16447</v>
+        <v>27706</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B33">
-        <v>15492</v>
+        <v>27083</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B34">
-        <v>15492</v>
+        <v>27083</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B35">
-        <v>9010</v>
+        <v>27083</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>9010</v>
+        <v>23994</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>9010</v>
+        <v>20803</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>7077</v>
+        <v>20152</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B39">
-        <v>5858</v>
+        <v>17488</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B40">
-        <v>5858</v>
+        <v>17488</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="B41">
-        <v>5050</v>
+        <v>15938</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="B42">
-        <v>4552</v>
+        <v>15938</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B43">
-        <v>3721</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B44">
-        <v>1861</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B45">
-        <v>1643</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B46">
-        <v>1643</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B47">
-        <v>733</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B48">
-        <v>733</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49">
-        <v>555</v>
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2785,7 +3297,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2796,477 +3308,477 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
         <v>13</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3277,7 +3789,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3288,7 +3800,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3299,7 +3811,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3310,7 +3822,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3321,12 +3833,122 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>0</v>
       </c>
     </row>
@@ -3337,7 +3959,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3348,391 +3970,471 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>74973</v>
+        <v>79423</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B3">
-        <v>74973</v>
+        <v>79217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B4">
-        <v>64842</v>
+        <v>79217</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>42589</v>
+        <v>51258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <v>42589</v>
+        <v>49566</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <v>41864</v>
+        <v>49566</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>41077</v>
+        <v>46548</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>25894</v>
+        <v>33843</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>22840</v>
+        <v>28561</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>22840</v>
+        <v>28340</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B12">
-        <v>17219</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B13">
-        <v>14028</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>13641</v>
+        <v>19225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>11547</v>
+        <v>15168</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>11521</v>
+        <v>14602</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>10428</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>10269</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="B19">
-        <v>10190</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="B20">
-        <v>10190</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>9320</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>7143</v>
+        <v>11299</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B23">
-        <v>7143</v>
+        <v>11284</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B24">
-        <v>7023</v>
+        <v>11284</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>6752</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>6660</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>6660</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>6321</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="B29">
-        <v>6128</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B30">
-        <v>5785</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>5321</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B32">
-        <v>5321</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B33">
-        <v>4778</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>4778</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>4778</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B36">
-        <v>4614</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B37">
-        <v>3085</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B38">
-        <v>3085</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B39">
-        <v>3085</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="B40">
-        <v>2980</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B41">
-        <v>2834</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B42">
-        <v>2214</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>2214</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>1166</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>1040</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B46">
-        <v>1040</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B47">
-        <v>843</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B48">
-        <v>91</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B49">
-        <v>91</v>
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +4444,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3758,178 +4460,202 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>1812571</v>
+        <v>1877172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>960328</v>
+        <v>1378335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>691721</v>
+        <v>728718</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>369515</v>
+        <v>623718</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>287729</v>
+        <v>494822</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>199772</v>
+        <v>414591</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B8">
-        <v>198961</v>
+        <v>215404</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>122305</v>
+        <v>211627</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B10">
-        <v>75564</v>
+        <v>131278</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>64099</v>
+        <v>80651</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B12">
-        <v>64099</v>
+        <v>67727</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="B13">
-        <v>36744</v>
+        <v>67727</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>9010</v>
+        <v>38765</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>8273</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B16">
-        <v>7719</v>
+        <v>8718</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B17">
-        <v>7077</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B18">
-        <v>5050</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B19">
-        <v>5050</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B20">
-        <v>4552</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B21">
-        <v>1643</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B22">
-        <v>733</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B23">
-        <v>555</v>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +4665,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3950,109 +4676,109 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B3">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4060,18 +4786,18 @@
         <v>88</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -4079,62 +4805,62 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4145,7 +4871,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4156,7 +4882,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4167,7 +4893,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4178,7 +4904,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4189,12 +4915,45 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
@@ -4205,7 +4964,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4216,183 +4975,207 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>157914</v>
+        <v>210866</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>64842</v>
+        <v>79423</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>48734</v>
+        <v>56830</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>45369</v>
+        <v>53299</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B6">
-        <v>45012</v>
+        <v>49666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>42589</v>
+        <v>49566</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>25943</v>
+        <v>28561</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B9">
-        <v>14028</v>
+        <v>28393</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B10">
-        <v>13151</v>
+        <v>15168</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>10123</v>
+        <v>14507</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>9320</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>9320</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>6321</v>
+        <v>11203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B15">
-        <v>6321</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="B16">
-        <v>5785</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B17">
-        <v>5654</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B18">
-        <v>3085</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B19">
-        <v>2980</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B20">
-        <v>2214</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B21">
-        <v>2009</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>843</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="155">
   <si>
     <t>Artist</t>
   </si>
@@ -54,12 +54,12 @@
     <t>Kirara Magic</t>
   </si>
   <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
     <t>Rosenfeld</t>
   </si>
   <si>
-    <t>Kaskade</t>
-  </si>
-  <si>
     <t>Aspyer</t>
   </si>
   <si>
@@ -93,18 +93,21 @@
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
-    <t>Dirty Palm</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
     <t>Lulleaux</t>
   </si>
   <si>
+    <t>Mo Falk</t>
+  </si>
+  <si>
     <t>Dr Phunk, Diandra Faye</t>
   </si>
   <si>
@@ -120,9 +123,6 @@
     <t>Body Ocean</t>
   </si>
   <si>
-    <t>Mo Falk</t>
-  </si>
-  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
@@ -147,12 +147,15 @@
     <t>DNVX</t>
   </si>
   <si>
+    <t>Aitor Hertz</t>
+  </si>
+  <si>
+    <t>Lady Bee, Dame1</t>
+  </si>
+  <si>
     <t>Deekey</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>Lost Identities, Anna Vellington</t>
   </si>
   <si>
@@ -177,12 +180,12 @@
     <t>Wraith</t>
   </si>
   <si>
+    <t>Closer</t>
+  </si>
+  <si>
     <t>Dangerous Woman</t>
   </si>
   <si>
-    <t>Closer</t>
-  </si>
-  <si>
     <t>Symphony</t>
   </si>
   <si>
@@ -216,18 +219,21 @@
     <t>Midnight</t>
   </si>
   <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
     <t>Coming Home</t>
   </si>
   <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
     <t>Shackles (Praise You)</t>
   </si>
   <si>
     <t>Even If You Don't</t>
   </si>
   <si>
+    <t>I'm Back</t>
+  </si>
+  <si>
     <t>Firebomb</t>
   </si>
   <si>
@@ -243,9 +249,6 @@
     <t>Once The Music</t>
   </si>
   <si>
-    <t>I'm Back</t>
-  </si>
-  <si>
     <t>Legacy</t>
   </si>
   <si>
@@ -270,12 +273,15 @@
     <t>Losing Control</t>
   </si>
   <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Soon Not Later</t>
+  </si>
+  <si>
     <t>Without You</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>Any Other Way</t>
   </si>
   <si>
@@ -300,10 +306,10 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>WLTD Entertainment LTD</t>
-  </si>
-  <si>
-    <t>Monstercat</t>
   </si>
   <si>
     <t>STMPD RCRDS</t>
@@ -838,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -863,13 +869,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -880,10 +886,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>1052567</v>
+        <v>1064760</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -891,13 +897,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>824605</v>
+        <v>833786</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -905,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -919,13 +925,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>623718</v>
+        <v>677931</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -933,13 +939,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>261956</v>
+        <v>266952</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -947,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>211627</v>
+        <v>225541</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -961,13 +967,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>210865</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -975,13 +981,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>156991</v>
+        <v>162555</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -989,13 +995,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>121049</v>
+        <v>125005</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1003,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12">
-        <v>103572</v>
+        <v>106422</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1017,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>99916</v>
+        <v>101730</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1031,13 +1037,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14">
-        <v>94727</v>
+        <v>96253</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1045,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>93681</v>
+        <v>95925</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1059,13 +1065,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16">
-        <v>75039</v>
+        <v>78419</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1073,13 +1079,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1087,13 +1093,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>62992</v>
+        <v>66816</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1101,13 +1107,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>61387</v>
+        <v>62878</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1115,13 +1121,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>41797</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1129,13 +1135,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>38137</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1143,13 +1149,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D22">
-        <v>37749</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1157,13 +1163,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>34477</v>
+        <v>35290</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1171,13 +1177,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>29497</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1185,13 +1191,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>27885</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1199,13 +1205,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D26">
-        <v>27706</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1213,13 +1219,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27">
-        <v>27083</v>
+        <v>27832</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1227,13 +1233,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D28">
-        <v>23994</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1241,13 +1247,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29">
-        <v>20803</v>
+        <v>24646</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1255,13 +1261,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30">
-        <v>20152</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1269,13 +1275,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31">
-        <v>17488</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1283,13 +1289,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32">
-        <v>15938</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1297,13 +1303,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1311,13 +1317,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34">
-        <v>7378</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1325,13 +1331,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>6228</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1339,13 +1345,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D36">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1353,13 +1359,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37">
-        <v>4922</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1367,13 +1373,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38">
-        <v>3796</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1381,13 +1387,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D39">
-        <v>1967</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1395,13 +1401,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1409,13 +1415,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>904</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1423,13 +1429,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42">
-        <v>628</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1437,12 +1443,26 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1470,10 +1490,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1481,10 +1501,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -1498,33 +1518,33 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1532,16 +1552,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1549,33 +1569,33 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1583,16 +1603,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1600,27 +1620,27 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>34</v>
@@ -1631,70 +1651,70 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1702,10 +1722,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -1719,10 +1739,10 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <v>17</v>
@@ -1736,10 +1756,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -1750,13 +1770,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -1770,10 +1790,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -1787,10 +1807,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>11</v>
@@ -1801,50 +1821,50 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>9</v>
@@ -1855,10 +1875,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1872,10 +1892,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1889,10 +1909,10 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1906,10 +1926,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1923,10 +1943,10 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1940,10 +1960,10 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1954,47 +1974,47 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" t="s">
-        <v>77</v>
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2005,13 +2025,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2022,13 +2042,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2039,13 +2059,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2056,13 +2076,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2073,13 +2093,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2090,13 +2110,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2107,13 +2127,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2124,13 +2144,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2141,13 +2161,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2158,13 +2178,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2175,18 +2195,35 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2234,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2214,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2222,13 +2259,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2236,27 +2273,27 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>79217</v>
+        <v>80614</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>51258</v>
+        <v>53845</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2264,13 +2301,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>49566</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2278,13 +2315,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>46548</v>
+        <v>48178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2292,13 +2329,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>33843</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2306,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>28561</v>
+        <v>29842</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2320,13 +2357,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>28340</v>
+        <v>29176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2337,10 +2374,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>24959</v>
+        <v>25609</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2348,27 +2385,27 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>19225</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D12">
-        <v>15168</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2376,13 +2413,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13">
-        <v>14602</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2390,13 +2427,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>12783</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2404,41 +2441,41 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>12483</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D16">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>11377</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2446,13 +2483,13 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>11299</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2460,13 +2497,13 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19">
-        <v>11284</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2474,41 +2511,41 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>9312</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22">
-        <v>8308</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2516,41 +2553,41 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D23">
-        <v>7738</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>7669</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25">
-        <v>7601</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2558,125 +2595,125 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26">
-        <v>7070</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27">
-        <v>6769</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28">
-        <v>6013</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D29">
-        <v>5967</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D30">
-        <v>5913</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32">
-        <v>4989</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>3534</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D34">
-        <v>3477</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2684,13 +2721,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2698,94 +2735,94 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37">
-        <v>1203</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D38">
-        <v>1104</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>104</v>
       </c>
       <c r="D39">
-        <v>918</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40">
-        <v>154</v>
+        <v>948</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2793,15 +2830,29 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
     </row>
@@ -2812,7 +2863,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2831,23 +2882,23 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>1052567</v>
+        <v>1064760</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4">
-        <v>1052567</v>
+        <v>1064760</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2855,23 +2906,23 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>824605</v>
+        <v>833786</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2879,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>623718</v>
+        <v>677931</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2887,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>261956</v>
+        <v>266952</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2895,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>211627</v>
+        <v>225541</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2903,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>210865</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2911,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>156991</v>
+        <v>162555</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2919,7 +2970,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>121049</v>
+        <v>125005</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2927,23 +2978,23 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>103572</v>
+        <v>106422</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15">
-        <v>99916</v>
+        <v>101730</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B16">
-        <v>99916</v>
+        <v>101730</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2951,7 +3002,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>94727</v>
+        <v>96253</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2959,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>93681</v>
+        <v>95925</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2967,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>75039</v>
+        <v>78419</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2975,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2983,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>62992</v>
+        <v>66816</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2991,47 +3042,47 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>61387</v>
+        <v>62878</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B23">
-        <v>41797</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24">
-        <v>41797</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>38137</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B26">
-        <v>38137</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B27">
-        <v>37749</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3039,7 +3090,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>34477</v>
+        <v>35290</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3047,63 +3098,63 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>29497</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>27885</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31">
-        <v>27885</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="B32">
-        <v>27706</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>27083</v>
+        <v>27832</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34">
-        <v>27083</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B35">
-        <v>27083</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B36">
-        <v>23994</v>
+        <v>27541</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3111,7 +3162,7 @@
         <v>31</v>
       </c>
       <c r="B37">
-        <v>20803</v>
+        <v>24646</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3119,63 +3170,63 @@
         <v>32</v>
       </c>
       <c r="B38">
-        <v>20152</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B39">
-        <v>17488</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B40">
-        <v>17488</v>
+        <v>17854</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B41">
-        <v>15938</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B42">
-        <v>15938</v>
+        <v>16086</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B43">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B44">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B45">
-        <v>9400</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3183,23 +3234,23 @@
         <v>36</v>
       </c>
       <c r="B46">
-        <v>7378</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B47">
-        <v>6228</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B48">
-        <v>6228</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3207,7 +3258,7 @@
         <v>38</v>
       </c>
       <c r="B49">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3215,7 +3266,7 @@
         <v>39</v>
       </c>
       <c r="B50">
-        <v>4922</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3223,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B51">
-        <v>3796</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3231,62 +3282,70 @@
         <v>41</v>
       </c>
       <c r="B52">
-        <v>1967</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B53">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B54">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>904</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56">
-        <v>904</v>
+        <v>963</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B57">
-        <v>628</v>
+        <v>963</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60">
         <v>0</v>
       </c>
     </row>
@@ -3297,7 +3356,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3308,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3330,21 +3389,21 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3352,43 +3411,43 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3396,10 +3455,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3407,15 +3466,15 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>34</v>
@@ -3426,84 +3485,84 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>26</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>26</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -3514,7 +3573,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>23</v>
@@ -3525,7 +3584,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -3536,7 +3595,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -3558,7 +3617,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -3569,7 +3628,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -3580,7 +3639,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -3591,7 +3650,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -3602,7 +3661,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B28">
         <v>11</v>
@@ -3624,32 +3683,32 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -3679,7 +3738,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3690,7 +3749,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -3712,7 +3771,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3723,7 +3782,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3734,7 +3793,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3745,7 +3804,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3756,18 +3815,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3778,18 +3837,18 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3800,7 +3859,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3811,7 +3870,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3822,7 +3881,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3833,7 +3892,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3844,7 +3903,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3855,7 +3914,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3866,7 +3925,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3877,7 +3936,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3888,7 +3947,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3899,7 +3958,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3910,7 +3969,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3921,7 +3980,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3932,7 +3991,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3943,12 +4002,23 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>0</v>
       </c>
     </row>
@@ -3959,7 +4029,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3970,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3978,47 +4048,47 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3">
-        <v>79217</v>
+        <v>80614</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B4">
-        <v>79217</v>
+        <v>80614</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>51258</v>
+        <v>53845</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>49566</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7">
-        <v>49566</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4026,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>46548</v>
+        <v>48178</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4034,7 +4104,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>33843</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4042,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28561</v>
+        <v>29842</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4050,23 +4120,23 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>28340</v>
+        <v>29176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12">
-        <v>24959</v>
+        <v>25609</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13">
-        <v>24959</v>
+        <v>25609</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4074,15 +4144,15 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19225</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>15168</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4090,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>14602</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4098,7 +4168,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>12783</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4106,31 +4176,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>12483</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B19">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>11377</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4138,23 +4208,23 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>11299</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B23">
-        <v>11284</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24">
-        <v>11284</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4162,23 +4232,23 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>9312</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>8308</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4186,244 +4256,244 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>7738</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>7669</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B30">
-        <v>7669</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="B31">
-        <v>7601</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B32">
-        <v>7070</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B33">
-        <v>7070</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>6769</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B35">
-        <v>6013</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B36">
-        <v>5967</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B37">
-        <v>5967</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B38">
-        <v>5913</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>5913</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B40">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B41">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B42">
-        <v>5103</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>4989</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>3534</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>3477</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B46">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B47">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B48">
-        <v>3301</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B49">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B50">
-        <v>2924</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>1203</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>1104</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53">
-        <v>1104</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B54">
-        <v>918</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>154</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4431,9 +4501,17 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>0</v>
       </c>
     </row>
@@ -4460,191 +4538,191 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <v>1877172</v>
+        <v>1898546</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3">
-        <v>1378335</v>
+        <v>1493451</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>728718</v>
+        <v>738024</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>623718</v>
+        <v>677931</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>494822</v>
+        <v>519092</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7">
-        <v>414591</v>
+        <v>427742</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>215404</v>
+        <v>230412</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>211627</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10">
-        <v>131278</v>
+        <v>134254</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11">
-        <v>80651</v>
+        <v>82550</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13">
-        <v>67727</v>
+        <v>68825</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>38765</v>
+        <v>39550</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B15">
-        <v>9400</v>
+        <v>12294</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16">
-        <v>8718</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B17">
-        <v>8195</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B18">
-        <v>7378</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B19">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B20">
-        <v>5203</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B21">
-        <v>4922</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>1958</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23">
-        <v>904</v>
+        <v>963</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24">
-        <v>628</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4652,7 +4730,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4676,70 +4754,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C2">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>43</v>
@@ -4750,7 +4828,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -4761,18 +4839,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -4783,7 +4861,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -4794,29 +4872,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -4827,7 +4905,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -4838,7 +4916,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4849,7 +4927,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -4860,7 +4938,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4871,7 +4949,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4882,7 +4960,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4893,7 +4971,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4904,7 +4982,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4915,7 +4993,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4926,7 +5004,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4937,7 +5015,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4948,7 +5026,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4975,207 +5053,207 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>210866</v>
+        <v>218602</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3">
-        <v>79423</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>56830</v>
+        <v>59142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>53299</v>
+        <v>54785</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>49666</v>
+        <v>52111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>49566</v>
+        <v>51005</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8">
-        <v>28561</v>
+        <v>29842</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>28393</v>
+        <v>29239</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B10">
-        <v>15168</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11">
-        <v>14507</v>
+        <v>14882</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13">
-        <v>11746</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14">
-        <v>11203</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B15">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16">
-        <v>9970</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17">
-        <v>7601</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18">
-        <v>7601</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19">
-        <v>6093</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20">
-        <v>6013</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="B21">
-        <v>3534</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B22">
-        <v>3301</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B23">
-        <v>2924</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B24">
-        <v>2121</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B25">
-        <v>918</v>
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B26">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="170">
   <si>
     <t>Artist</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Porter Robinson</t>
   </si>
   <si>
+    <t>Armin van Buuren</t>
+  </si>
+  <si>
     <t>Arlow, Shiah Maisel</t>
   </si>
   <si>
@@ -48,13 +51,19 @@
     <t>deadmau5, Wolfgang Gartner</t>
   </si>
   <si>
-    <t>Armin van Buuren</t>
+    <t>Don Diablo</t>
+  </si>
+  <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
+    <t>KEVU</t>
   </si>
   <si>
     <t>Kirara Magic</t>
   </si>
   <si>
-    <t>Kaskade</t>
+    <t>Maggie Lindemann</t>
   </si>
   <si>
     <t>Rosenfeld</t>
@@ -69,33 +78,36 @@
     <t>WbToys</t>
   </si>
   <si>
+    <t>Julian Jordan</t>
+  </si>
+  <si>
     <t>TYNAN, Ace Aura</t>
   </si>
   <si>
     <t>Camellia</t>
   </si>
   <si>
-    <t>Julian Jordan</t>
-  </si>
-  <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Rameses B</t>
+  </si>
+  <si>
+    <t>DubVision</t>
+  </si>
+  <si>
     <t>Misfit</t>
   </si>
   <si>
-    <t>Rameses B</t>
-  </si>
-  <si>
-    <t>DubVision</t>
+    <t>KAAZE, Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Dirty Palm</t>
   </si>
   <si>
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
-    <t>Dirty Palm</t>
-  </si>
-  <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
@@ -111,15 +123,15 @@
     <t>Dr Phunk, Diandra Faye</t>
   </si>
   <si>
+    <t>Jaxxwell, Hardwell, Blasterjaxx</t>
+  </si>
+  <si>
+    <t>NUZB</t>
+  </si>
+  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
-    <t>Jaxxwell, Hardwell, Blasterjaxx</t>
-  </si>
-  <si>
-    <t>NUZB</t>
-  </si>
-  <si>
     <t>Body Ocean</t>
   </si>
   <si>
@@ -138,10 +150,13 @@
     <t>DJ St3v3, Sebastian Mateo</t>
   </si>
   <si>
+    <t>D3EPANK</t>
+  </si>
+  <si>
     <t>Slippy</t>
   </si>
   <si>
-    <t>D3EPANK</t>
+    <t>Lady Bee, Dame1</t>
   </si>
   <si>
     <t>DNVX</t>
@@ -150,9 +165,6 @@
     <t>Aitor Hertz</t>
   </si>
   <si>
-    <t>Lady Bee, Dame1</t>
-  </si>
-  <si>
     <t>Deekey</t>
   </si>
   <si>
@@ -168,19 +180,28 @@
     <t>Look At The Sky</t>
   </si>
   <si>
+    <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
+  </si>
+  <si>
     <t>Banger Machine</t>
   </si>
   <si>
     <t>Channel 43</t>
   </si>
   <si>
-    <t>Turn The World Into A Dancefloor (ASOT 1000 Anthem)</t>
+    <t>Into The Unknown</t>
+  </si>
+  <si>
+    <t>Closer</t>
+  </si>
+  <si>
+    <t>Melody</t>
   </si>
   <si>
     <t>Wraith</t>
   </si>
   <si>
-    <t>Closer</t>
+    <t>Crash And Burn</t>
   </si>
   <si>
     <t>Dangerous Woman</t>
@@ -195,33 +216,36 @@
     <t>Let Me Love You</t>
   </si>
   <si>
+    <t>Big Bad Bass</t>
+  </si>
+  <si>
     <t>Stay</t>
   </si>
   <si>
     <t>PURE SILVER</t>
   </si>
   <si>
-    <t>Big Bad Bass</t>
-  </si>
-  <si>
     <t>Bonetrousle</t>
   </si>
   <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Deeper</t>
+  </si>
+  <si>
     <t>Mirage</t>
   </si>
   <si>
-    <t>Samurai</t>
-  </si>
-  <si>
-    <t>Deeper</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
   </si>
   <si>
     <t>Midnight</t>
   </si>
   <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
     <t>Coming Home</t>
   </si>
   <si>
@@ -237,15 +261,15 @@
     <t>Firebomb</t>
   </si>
   <si>
+    <t>Bootshaus ID</t>
+  </si>
+  <si>
+    <t>Nighttime</t>
+  </si>
+  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
-    <t>Bootshaus ID</t>
-  </si>
-  <si>
-    <t>Nighttime</t>
-  </si>
-  <si>
     <t>Once The Music</t>
   </si>
   <si>
@@ -264,10 +288,13 @@
     <t>So Sexy</t>
   </si>
   <si>
+    <t>Eternally</t>
+  </si>
+  <si>
     <t>Free</t>
   </si>
   <si>
-    <t>Eternally</t>
+    <t>Soon Not Later</t>
   </si>
   <si>
     <t>Losing Control</t>
@@ -276,9 +303,6 @@
     <t>Dance</t>
   </si>
   <si>
-    <t>Soon Not Later</t>
-  </si>
-  <si>
     <t>Without You</t>
   </si>
   <si>
@@ -294,169 +318,190 @@
     <t>MOM+POP</t>
   </si>
   <si>
+    <t>A State Of Trance, Armada Music</t>
+  </si>
+  <si>
     <t>NCS</t>
   </si>
   <si>
     <t>mau5trap</t>
   </si>
   <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>swixxzaudio</t>
+  </si>
+  <si>
+    <t>WLTD Entertainment LTD</t>
+  </si>
+  <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
+    <t>HEXAGON, GenerationHEX</t>
+  </si>
+  <si>
+    <t>BreadnButter, Trap City</t>
+  </si>
+  <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
+    <t>Liquicity</t>
+  </si>
+  <si>
+    <t>Tribal Trap</t>
+  </si>
+  <si>
+    <t>Revealed Music, Revealed Radar</t>
+  </si>
+  <si>
+    <t>Future House Cloud, FHC Selection</t>
+  </si>
+  <si>
+    <t>Dim Mak, Dim Mak New Noise</t>
+  </si>
+  <si>
+    <t>Mixmash Recorsds</t>
+  </si>
+  <si>
+    <t>Future House Cloud</t>
+  </si>
+  <si>
+    <t>Lost World</t>
+  </si>
+  <si>
+    <t>Galacy, Liquicity</t>
+  </si>
+  <si>
+    <t>Discover Records, JompaMusic</t>
+  </si>
+  <si>
+    <t>1001T_Supports</t>
+  </si>
+  <si>
+    <t>1001T_TotPlays</t>
+  </si>
+  <si>
+    <t>Soundcloud_Plays</t>
+  </si>
+  <si>
+    <t>Arlow</t>
+  </si>
+  <si>
+    <t>Shiah Maisel</t>
+  </si>
+  <si>
+    <t>Wolfgang Gartner</t>
+  </si>
+  <si>
+    <t>deadmau5</t>
+  </si>
+  <si>
+    <t>Ace Aura</t>
+  </si>
+  <si>
+    <t>TYNAN</t>
+  </si>
+  <si>
+    <t>KAAZE</t>
+  </si>
+  <si>
+    <t>Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Lucas Marx</t>
+  </si>
+  <si>
+    <t>Matt Nash</t>
+  </si>
+  <si>
+    <t>Martin Jasper</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Diandra Faye</t>
+  </si>
+  <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
+    <t>Blasterjaxx</t>
+  </si>
+  <si>
+    <t>Hardwell</t>
+  </si>
+  <si>
+    <t>Jaxxwell</t>
+  </si>
+  <si>
+    <t>REGGIO</t>
+  </si>
+  <si>
+    <t>Rave Republic</t>
+  </si>
+  <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>Julian Calor</t>
+  </si>
+  <si>
+    <t>Chester Young</t>
+  </si>
+  <si>
+    <t>MR.BLACK</t>
+  </si>
+  <si>
+    <t>Offer Nissim</t>
+  </si>
+  <si>
+    <t>DJ St3v3</t>
+  </si>
+  <si>
+    <t>Sebastian Mateo</t>
+  </si>
+  <si>
+    <t>Dame1</t>
+  </si>
+  <si>
+    <t>Lady Bee</t>
+  </si>
+  <si>
+    <t>Anna Vellington</t>
+  </si>
+  <si>
+    <t>Lost Identities</t>
+  </si>
+  <si>
+    <t>Cassidy Mackenzie</t>
+  </si>
+  <si>
+    <t>Jonth</t>
+  </si>
+  <si>
     <t>A State Of Trance</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Monstercat</t>
-  </si>
-  <si>
-    <t>WLTD Entertainment LTD</t>
-  </si>
-  <si>
-    <t>STMPD RCRDS</t>
-  </si>
-  <si>
-    <t>HEXAGON, GenerationHEX</t>
-  </si>
-  <si>
-    <t>BreadnButter, Trap City</t>
-  </si>
-  <si>
-    <t>Liquicity</t>
-  </si>
-  <si>
-    <t>HEXAGON</t>
-  </si>
-  <si>
-    <t>Revealed Recordings</t>
-  </si>
-  <si>
-    <t>Revealed Recordins</t>
-  </si>
-  <si>
-    <t>Tribal Trap</t>
-  </si>
-  <si>
-    <t>Revealed Recordings, Revealed Radar</t>
-  </si>
-  <si>
-    <t>Dim Mak, Dim Mak New Noise</t>
-  </si>
-  <si>
-    <t>Future House Cloud, FHC Selection</t>
-  </si>
-  <si>
-    <t>Future House Cloud</t>
-  </si>
-  <si>
-    <t>Mixmash Recorsds</t>
-  </si>
-  <si>
-    <t>Lost World</t>
-  </si>
-  <si>
-    <t>Galacy, Liquicity</t>
-  </si>
-  <si>
-    <t>Discover Records, JompaMusic</t>
-  </si>
-  <si>
-    <t>1001T_Supports</t>
-  </si>
-  <si>
-    <t>1001T_TotPlays</t>
-  </si>
-  <si>
-    <t>Soundcloud_Plays</t>
-  </si>
-  <si>
-    <t>Arlow</t>
-  </si>
-  <si>
-    <t>Shiah Maisel</t>
-  </si>
-  <si>
-    <t>Wolfgang Gartner</t>
-  </si>
-  <si>
-    <t>deadmau5</t>
-  </si>
-  <si>
-    <t>Ace Aura</t>
-  </si>
-  <si>
-    <t>TYNAN</t>
-  </si>
-  <si>
-    <t>Lucas Marx</t>
-  </si>
-  <si>
-    <t>Matt Nash</t>
-  </si>
-  <si>
-    <t>Martin Jasper</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>Diandra Faye</t>
-  </si>
-  <si>
-    <t>Dr Phunk</t>
-  </si>
-  <si>
-    <t>Blasterjaxx</t>
-  </si>
-  <si>
-    <t>Hardwell</t>
-  </si>
-  <si>
-    <t>Jaxxwell</t>
-  </si>
-  <si>
-    <t>REGGIO</t>
-  </si>
-  <si>
-    <t>Rave Republic</t>
-  </si>
-  <si>
-    <t>Aiobahn</t>
-  </si>
-  <si>
-    <t>Julian Calor</t>
-  </si>
-  <si>
-    <t>Chester Young</t>
-  </si>
-  <si>
-    <t>MR.BLACK</t>
-  </si>
-  <si>
-    <t>Offer Nissim</t>
-  </si>
-  <si>
-    <t>DJ St3v3</t>
-  </si>
-  <si>
-    <t>Sebastian Mateo</t>
-  </si>
-  <si>
-    <t>Dame1</t>
-  </si>
-  <si>
-    <t>Lady Bee</t>
-  </si>
-  <si>
-    <t>Anna Vellington</t>
-  </si>
-  <si>
-    <t>Lost Identities</t>
-  </si>
-  <si>
-    <t>Cassidy Mackenzie</t>
-  </si>
-  <si>
-    <t>Jonth</t>
+    <t>Armada Music</t>
+  </si>
+  <si>
+    <t>Maxximize Records</t>
+  </si>
+  <si>
+    <t>Spinnin' Records</t>
   </si>
   <si>
     <t>GenerationHEX</t>
@@ -471,13 +516,13 @@
     <t>Revealed Radar</t>
   </si>
   <si>
+    <t>FHC Selection</t>
+  </si>
+  <si>
     <t>Dim Mak</t>
   </si>
   <si>
     <t>Dim Mak New Noise</t>
-  </si>
-  <si>
-    <t>FHC Selection</t>
   </si>
   <si>
     <t>Galacy</t>
@@ -844,7 +889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -869,41 +914,41 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>1493451</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>21</v>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>1064760</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="B4">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>833786</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -911,13 +956,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>738024</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -925,13 +970,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>677931</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -939,13 +984,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>266952</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -953,13 +998,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>225541</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -967,13 +1012,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>216147</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -981,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>162555</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -995,13 +1040,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>125005</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1009,13 +1054,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>106422</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1023,13 +1068,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D13">
-        <v>101730</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1037,13 +1082,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>96253</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1051,13 +1096,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D15">
-        <v>95925</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1065,13 +1110,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>78419</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1079,13 +1124,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>68825</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1093,13 +1138,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>66816</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1107,13 +1152,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D19">
-        <v>62878</v>
+        <v>110071</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1121,13 +1166,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D20">
-        <v>44060</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1135,13 +1180,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>39718</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1149,13 +1194,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D22">
-        <v>38888</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1163,13 +1208,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>35290</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1177,13 +1222,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D24">
-        <v>31223</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1191,13 +1236,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>29645</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1205,13 +1250,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>28798</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1219,13 +1264,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D27">
-        <v>27832</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1233,13 +1278,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
       <c r="D28">
-        <v>27541</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1247,13 +1292,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D29">
-        <v>24646</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1261,13 +1306,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D30">
-        <v>21592</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1275,13 +1320,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>17854</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1289,13 +1334,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D32">
-        <v>16086</v>
+        <v>30074</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1303,13 +1348,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>9562</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1317,13 +1362,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D34">
-        <v>7471</v>
+        <v>28682</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1331,13 +1376,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>6351</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1345,13 +1390,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36">
-        <v>5288</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1359,13 +1404,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <v>5038</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1373,13 +1418,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D38">
-        <v>3810</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1387,13 +1432,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D39">
-        <v>3446</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1401,13 +1446,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D40">
-        <v>2112</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1415,13 +1460,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>2006</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1429,13 +1474,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>963</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1443,13 +1488,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D43">
-        <v>662</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1457,12 +1502,68 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D44">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1490,157 +1591,157 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E4">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
         <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D10">
         <v>34</v>
@@ -1651,254 +1752,254 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>32</v>
       </c>
       <c r="E11">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -1906,200 +2007,200 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2110,13 +2211,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2127,13 +2228,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2144,13 +2245,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2161,13 +2262,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2178,13 +2279,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2195,13 +2296,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2212,18 +2313,86 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +2403,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2251,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2259,242 +2428,242 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>83760</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>80614</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>53845</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>52111</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>48178</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>35965</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>29842</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>29176</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>25609</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>19831</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>15450</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>15133</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D14">
-        <v>13225</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>12761</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>11979</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17">
-        <v>11699</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>11663</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -2503,356 +2672,412 @@
         <v>101</v>
       </c>
       <c r="D19">
-        <v>11646</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D20">
-        <v>10231</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>9787</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>8801</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>7922</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>7896</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>7849</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>7169</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>6960</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D28">
-        <v>6393</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>6129</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>6070</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D31">
-        <v>5226</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>5113</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>3723</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D34">
-        <v>3697</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>3376</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>3201</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D37">
-        <v>1696</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D38">
-        <v>1217</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>1125</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D40">
-        <v>948</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D41">
-        <v>168</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D44">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +3088,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2882,55 +3107,55 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1493451</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1064760</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B4">
-        <v>1064760</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>833786</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>738024</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B7">
-        <v>738024</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>677931</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2938,7 +3163,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>266952</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2946,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>225541</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2954,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>216147</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2962,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>162555</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2970,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>125005</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2978,55 +3203,55 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>106422</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>101730</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>101730</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>96253</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>95925</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="B19">
-        <v>78419</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="B20">
-        <v>68825</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3034,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>66816</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3042,87 +3267,87 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>62878</v>
+        <v>110071</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>44060</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>44060</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>39718</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B26">
-        <v>38888</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B27">
-        <v>38888</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>35290</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="B29">
-        <v>31223</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="B30">
-        <v>29645</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B31">
-        <v>28798</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B32">
-        <v>28798</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3130,143 +3355,143 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>27832</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>27541</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>27541</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B36">
-        <v>27541</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B37">
-        <v>24646</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B38">
-        <v>21592</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B39">
-        <v>17854</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B40">
-        <v>17854</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>16086</v>
+        <v>30074</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>16086</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>9562</v>
+        <v>28682</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B44">
-        <v>9562</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B45">
-        <v>9562</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="B46">
-        <v>7471</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B47">
-        <v>6351</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B48">
-        <v>6351</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B49">
-        <v>5288</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="B50">
-        <v>5038</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3274,31 +3499,31 @@
         <v>40</v>
       </c>
       <c r="B51">
-        <v>3810</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="B52">
-        <v>3446</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B53">
-        <v>2112</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B54">
-        <v>2112</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3306,23 +3531,23 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>2006</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B56">
-        <v>963</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B57">
-        <v>963</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3330,22 +3555,62 @@
         <v>45</v>
       </c>
       <c r="B58">
-        <v>662</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B60">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65">
         <v>0</v>
       </c>
     </row>
@@ -3356,7 +3621,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3367,114 +3632,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>34</v>
@@ -3485,211 +3750,211 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B12">
         <v>32</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3697,224 +3962,224 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3925,7 +4190,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3936,7 +4201,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3947,7 +4212,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3958,7 +4223,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3969,7 +4234,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3980,7 +4245,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3991,7 +4256,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4002,7 +4267,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4013,12 +4278,67 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
     </row>
@@ -4029,7 +4349,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4040,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4048,470 +4368,510 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>83760</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>80614</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B4">
-        <v>80614</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B5">
-        <v>53845</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B6">
-        <v>52111</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>52111</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>48178</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>35965</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>29842</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>29176</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B12">
-        <v>25609</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B13">
-        <v>25609</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>19831</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>15450</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>15133</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>13225</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>12761</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>11979</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>11979</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B21">
-        <v>11699</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B22">
-        <v>11663</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>11646</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>11646</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B25">
-        <v>10231</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B26">
-        <v>9787</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>8801</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>7922</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>7896</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B30">
-        <v>7849</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B31">
-        <v>7849</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32">
-        <v>7169</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33">
-        <v>7169</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>6960</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B35">
-        <v>6393</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B36">
-        <v>6393</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>6129</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>6129</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="B39">
-        <v>6070</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>5226</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B41">
-        <v>5226</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B42">
-        <v>5226</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>5113</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>3723</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>3697</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B46">
-        <v>3376</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B47">
-        <v>3376</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B48">
-        <v>3376</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B49">
-        <v>3201</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B50">
-        <v>3201</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>1696</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B52">
-        <v>1217</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B53">
-        <v>1125</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B54">
-        <v>1125</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B55">
-        <v>948</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B56">
-        <v>168</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B57">
-        <v>168</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B60">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65">
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4882,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4538,201 +4898,225 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B2">
-        <v>1898546</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>1493451</v>
+        <v>2133662</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="B4">
-        <v>738024</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="B5">
-        <v>677931</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>519092</v>
+        <v>978011</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>427742</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B8">
-        <v>230412</v>
+        <v>794328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B9">
-        <v>216147</v>
+        <v>557928</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B10">
-        <v>134254</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="B11">
-        <v>82550</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B12">
-        <v>68825</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B13">
-        <v>68825</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B14">
-        <v>39550</v>
+        <v>182431</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B15">
-        <v>12294</v>
+        <v>169834</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B16">
-        <v>9562</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B17">
-        <v>8357</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B18">
-        <v>7471</v>
+        <v>50732</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B19">
-        <v>5288</v>
+        <v>14501</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B20">
-        <v>5288</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B21">
-        <v>5038</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B22">
-        <v>2112</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B23">
-        <v>963</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B24">
-        <v>662</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B26">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29">
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +5127,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4754,136 +5138,136 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B2">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="C2">
-        <v>319</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -4894,84 +5278,84 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4982,7 +5366,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4993,7 +5377,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5004,7 +5388,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5015,7 +5399,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5026,12 +5410,45 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
@@ -5042,7 +5459,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5053,207 +5470,231 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>218602</v>
+        <v>305870</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B3">
-        <v>83760</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B4">
-        <v>59142</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>54785</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>52111</v>
+        <v>72914</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>51005</v>
+        <v>69514</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B8">
-        <v>29842</v>
+        <v>56458</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B9">
-        <v>29239</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B10">
-        <v>15450</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B11">
-        <v>14882</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B12">
-        <v>11979</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B13">
-        <v>11979</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B14">
-        <v>11546</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B15">
-        <v>10231</v>
+        <v>19423</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B16">
-        <v>10231</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B17">
-        <v>7896</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B18">
-        <v>7896</v>
+        <v>15268</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B19">
-        <v>6238</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B20">
-        <v>6070</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="B21">
-        <v>3861</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B22">
-        <v>3697</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B23">
-        <v>3376</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B24">
-        <v>3201</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B25">
-        <v>948</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B26">
-        <v>168</v>
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
@@ -54,12 +54,12 @@
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>KEVU</t>
+  </si>
+  <si>
     <t>Kaskade</t>
   </si>
   <si>
-    <t>KEVU</t>
-  </si>
-  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
@@ -108,12 +108,12 @@
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
     <t>Polygon, Martin Jasper</t>
   </si>
   <si>
-    <t>Malarkey</t>
-  </si>
-  <si>
     <t>Lulleaux</t>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t>NUZB</t>
   </si>
   <si>
+    <t>Body Ocean</t>
+  </si>
+  <si>
     <t>Maurice Lessing</t>
   </si>
   <si>
-    <t>Body Ocean</t>
-  </si>
-  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
@@ -192,12 +192,12 @@
     <t>Into The Unknown</t>
   </si>
   <si>
+    <t>Melody</t>
+  </si>
+  <si>
     <t>Closer</t>
   </si>
   <si>
-    <t>Melody</t>
-  </si>
-  <si>
     <t>Wraith</t>
   </si>
   <si>
@@ -246,12 +246,12 @@
     <t>Midnight</t>
   </si>
   <si>
+    <t>Shackles (Praise You)</t>
+  </si>
+  <si>
     <t>Coming Home</t>
   </si>
   <si>
-    <t>Shackles (Praise You)</t>
-  </si>
-  <si>
     <t>Even If You Don't</t>
   </si>
   <si>
@@ -267,12 +267,12 @@
     <t>Nighttime</t>
   </si>
   <si>
+    <t>Once The Music</t>
+  </si>
+  <si>
     <t>Never Let You Go</t>
   </si>
   <si>
-    <t>Once The Music</t>
-  </si>
-  <si>
     <t>Legacy</t>
   </si>
   <si>
@@ -330,10 +330,10 @@
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>Monstercat</t>
-  </si>
-  <si>
-    <t>Maxximize Records, Spinnin' Records</t>
   </si>
   <si>
     <t>NONE</t>
@@ -920,7 +920,7 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>2443226</v>
+        <v>2631252</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -934,7 +934,7 @@
         <v>98</v>
       </c>
       <c r="D3">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -948,7 +948,7 @@
         <v>99</v>
       </c>
       <c r="D4">
-        <v>1197598</v>
+        <v>1220449</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -962,7 +962,7 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <v>936064</v>
+        <v>955772</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -976,7 +976,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>818990</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -990,7 +990,7 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>673909</v>
+        <v>695603</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>385867</v>
+        <v>473116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>365179</v>
+        <v>416185</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>318074</v>
+        <v>364686</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>311782</v>
+        <v>336188</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>284844</v>
+        <v>303531</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>107</v>
       </c>
       <c r="D13">
-        <v>218096</v>
+        <v>227242</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1085,10 +1085,10 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14">
-        <v>176822</v>
+        <v>187158</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>108</v>
       </c>
       <c r="D15">
-        <v>140727</v>
+        <v>150182</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>107</v>
       </c>
       <c r="D16">
-        <v>124757</v>
+        <v>129542</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1127,10 +1127,10 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>124436</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>104</v>
       </c>
       <c r="D18">
-        <v>115103</v>
+        <v>119609</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>104</v>
       </c>
       <c r="D19">
-        <v>110071</v>
+        <v>116440</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1169,10 +1169,10 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>107203</v>
+        <v>114821</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D21">
-        <v>79132</v>
+        <v>81963</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>109</v>
       </c>
       <c r="D22">
-        <v>77822</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>110</v>
       </c>
       <c r="D23">
-        <v>68416</v>
+        <v>71826</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>104</v>
       </c>
       <c r="D24">
-        <v>63380</v>
+        <v>66907</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>107</v>
       </c>
       <c r="D25">
-        <v>59890</v>
+        <v>61794</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1253,10 +1253,10 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D26">
-        <v>49652</v>
+        <v>53132</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1267,10 +1267,10 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>48234</v>
+        <v>52061</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>101</v>
       </c>
       <c r="D28">
-        <v>44523</v>
+        <v>47650</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>101</v>
       </c>
       <c r="D29">
-        <v>41511</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>110</v>
       </c>
       <c r="D30">
-        <v>38208</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="D31">
-        <v>33137</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>107</v>
       </c>
       <c r="D32">
-        <v>30074</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1351,10 +1351,10 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>29107</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34">
-        <v>28682</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>110</v>
       </c>
       <c r="D35">
-        <v>21522</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>107</v>
       </c>
       <c r="D36">
-        <v>17297</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>110</v>
       </c>
       <c r="D37">
-        <v>10947</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>8549</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>7753</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>6358</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>115</v>
       </c>
       <c r="D41">
-        <v>5923</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>116</v>
       </c>
       <c r="D42">
-        <v>4861</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>117</v>
       </c>
       <c r="D43">
-        <v>4140</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>117</v>
       </c>
       <c r="D44">
-        <v>4003</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>113</v>
       </c>
       <c r="D45">
-        <v>2448</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>118</v>
       </c>
       <c r="D46">
-        <v>1876</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>119</v>
       </c>
       <c r="D47">
-        <v>1080</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -1611,58 +1611,58 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1693,10 +1693,10 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1710,10 +1710,10 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1727,18 +1727,18 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1781,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1820,36 +1820,36 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1956,19 +1956,19 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1982,10 +1982,10 @@
         <v>110</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2007,13 +2007,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2098,7 +2098,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>111</v>
@@ -2166,7 +2166,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>138148</v>
+        <v>147082</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2445,10 +2445,10 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3">
-        <v>96907</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2462,21 +2462,21 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5">
-        <v>84178</v>
+        <v>89181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2487,10 +2487,10 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>66583</v>
+        <v>69549</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2501,10 +2501,10 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>58202</v>
+        <v>61960</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2518,21 +2518,21 @@
         <v>98</v>
       </c>
       <c r="D8">
-        <v>45584</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>39031</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2546,105 +2546,105 @@
         <v>99</v>
       </c>
       <c r="D10">
-        <v>33883</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>33634</v>
+        <v>29971</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>28389</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13">
-        <v>21409</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>21192</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>20019</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>19051</v>
+        <v>18836</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="D17">
-        <v>17680</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2658,382 +2658,382 @@
         <v>110</v>
       </c>
       <c r="D18">
-        <v>16254</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19">
-        <v>16246</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <v>16165</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>15567</v>
+        <v>16197</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22">
-        <v>14908</v>
+        <v>14922</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>14089</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D24">
-        <v>13100</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>12437</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26">
-        <v>12187</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>10989</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>10335</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29">
-        <v>10032</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D30">
-        <v>9391</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
       </c>
       <c r="D31">
-        <v>9013</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D32">
-        <v>8297</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>7750</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>7591</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>6876</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>6627</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <v>6334</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38">
-        <v>4933</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D39">
-        <v>4045</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
         <v>117</v>
       </c>
       <c r="D40">
-        <v>2086</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41">
-        <v>1457</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42">
-        <v>1419</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D43">
-        <v>1274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D44">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2443226</v>
+        <v>2631252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>124</v>
       </c>
       <c r="B4">
-        <v>1197598</v>
+        <v>1220449</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>1197598</v>
+        <v>1220449</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>936064</v>
+        <v>955772</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>818990</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>818990</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>673909</v>
+        <v>695603</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>385867</v>
+        <v>473116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>365179</v>
+        <v>416185</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>318074</v>
+        <v>364686</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>311782</v>
+        <v>336188</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>284844</v>
+        <v>303531</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>218096</v>
+        <v>227242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3219,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>176822</v>
+        <v>187158</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>140727</v>
+        <v>150182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3235,7 +3235,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>124757</v>
+        <v>129542</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>128</v>
       </c>
       <c r="B19">
-        <v>124436</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>129</v>
       </c>
       <c r="B20">
-        <v>124436</v>
+        <v>129229</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3259,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>115103</v>
+        <v>119609</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3267,7 +3267,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>110071</v>
+        <v>116440</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3275,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>107203</v>
+        <v>114821</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>79132</v>
+        <v>81963</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>77822</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>130</v>
       </c>
       <c r="B26">
-        <v>68416</v>
+        <v>71826</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3307,7 +3307,7 @@
         <v>131</v>
       </c>
       <c r="B27">
-        <v>68416</v>
+        <v>71826</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>63380</v>
+        <v>66907</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>132</v>
       </c>
       <c r="B29">
-        <v>59890</v>
+        <v>61794</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3331,31 +3331,31 @@
         <v>133</v>
       </c>
       <c r="B30">
-        <v>59890</v>
+        <v>61794</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>49652</v>
+        <v>53132</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32">
-        <v>49652</v>
+        <v>52061</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="B33">
-        <v>48234</v>
+        <v>52061</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3363,7 +3363,7 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>44523</v>
+        <v>47650</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>41511</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>136</v>
       </c>
       <c r="B36">
-        <v>38208</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3387,7 +3387,7 @@
         <v>137</v>
       </c>
       <c r="B37">
-        <v>38208</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>138</v>
       </c>
       <c r="B38">
-        <v>33137</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>139</v>
       </c>
       <c r="B39">
-        <v>33137</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>140</v>
       </c>
       <c r="B40">
-        <v>33137</v>
+        <v>34164</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>30074</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>35</v>
       </c>
       <c r="B42">
-        <v>29107</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3435,7 +3435,7 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <v>28682</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3443,7 +3443,7 @@
         <v>141</v>
       </c>
       <c r="B44">
-        <v>21522</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3451,7 +3451,7 @@
         <v>142</v>
       </c>
       <c r="B45">
-        <v>21522</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3459,7 +3459,7 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>17297</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>144</v>
       </c>
       <c r="B47">
-        <v>17297</v>
+        <v>17511</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>145</v>
       </c>
       <c r="B48">
-        <v>10947</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3483,7 +3483,7 @@
         <v>146</v>
       </c>
       <c r="B49">
-        <v>10947</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>147</v>
       </c>
       <c r="B50">
-        <v>10947</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>40</v>
       </c>
       <c r="B51">
-        <v>8549</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3507,7 +3507,7 @@
         <v>148</v>
       </c>
       <c r="B52">
-        <v>7753</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>149</v>
       </c>
       <c r="B53">
-        <v>7753</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>42</v>
       </c>
       <c r="B54">
-        <v>6358</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3531,7 +3531,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>5923</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>150</v>
       </c>
       <c r="B56">
-        <v>4861</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>151</v>
       </c>
       <c r="B57">
-        <v>4861</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3555,7 +3555,7 @@
         <v>45</v>
       </c>
       <c r="B58">
-        <v>4140</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3563,7 +3563,7 @@
         <v>46</v>
       </c>
       <c r="B59">
-        <v>4003</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3571,7 +3571,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2448</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3579,7 +3579,7 @@
         <v>152</v>
       </c>
       <c r="B61">
-        <v>1876</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>153</v>
       </c>
       <c r="B62">
-        <v>1876</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3595,7 +3595,7 @@
         <v>49</v>
       </c>
       <c r="B63">
-        <v>1080</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3640,46 +3640,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3690,7 +3690,7 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3701,7 +3701,7 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3709,10 +3709,10 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3720,10 +3720,10 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3731,15 +3731,15 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>34</v>
@@ -3778,7 +3778,7 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3827,46 +3827,46 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>25</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3959,13 +3959,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3973,10 +3973,10 @@
         <v>145</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3984,10 +3984,10 @@
         <v>146</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3995,10 +3995,10 @@
         <v>147</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4014,7 +4014,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>138148</v>
+        <v>147082</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>128</v>
       </c>
       <c r="B3">
-        <v>96907</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>129</v>
       </c>
       <c r="B4">
-        <v>96907</v>
+        <v>99991</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>126</v>
       </c>
       <c r="B5">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4400,15 +4400,15 @@
         <v>127</v>
       </c>
       <c r="B6">
-        <v>88196</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>84178</v>
+        <v>89181</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>66583</v>
+        <v>69549</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>58202</v>
+        <v>61960</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4432,15 +4432,15 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>45584</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>39031</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>124</v>
       </c>
       <c r="B12">
-        <v>33883</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4456,63 +4456,63 @@
         <v>125</v>
       </c>
       <c r="B13">
-        <v>33883</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>33634</v>
+        <v>29971</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>28389</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>21409</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>21192</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>20019</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>19051</v>
+        <v>18836</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>17680</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>141</v>
       </c>
       <c r="B21">
-        <v>16254</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4528,324 +4528,324 @@
         <v>142</v>
       </c>
       <c r="B22">
-        <v>16254</v>
+        <v>17079</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>16246</v>
+        <v>16918</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="B24">
-        <v>16165</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B25">
-        <v>15567</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>15567</v>
+        <v>16197</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>14908</v>
+        <v>14922</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="B28">
-        <v>14089</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="B29">
-        <v>13100</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="B30">
-        <v>12437</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31">
-        <v>12437</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32">
-        <v>12187</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>12187</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B34">
-        <v>10989</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B35">
-        <v>10335</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>10335</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>10032</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B38">
-        <v>9391</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B39">
-        <v>9013</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>9013</v>
+        <v>8528</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>8297</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B42">
-        <v>8297</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="B43">
-        <v>7750</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>7591</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="B45">
-        <v>6876</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B46">
-        <v>6627</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47">
-        <v>6627</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>6627</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B49">
-        <v>6334</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B50">
-        <v>6334</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B51">
-        <v>4933</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>4045</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B53">
-        <v>4045</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B54">
-        <v>4045</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55">
-        <v>2086</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="B56">
-        <v>1457</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B57">
-        <v>1457</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B58">
-        <v>1419</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B59">
-        <v>1274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>97</v>
       </c>
       <c r="B2">
-        <v>2443226</v>
+        <v>2631252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>99</v>
       </c>
       <c r="B3">
-        <v>2133662</v>
+        <v>2176221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>156</v>
       </c>
       <c r="B4">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>157</v>
       </c>
       <c r="B5">
-        <v>1215313</v>
+        <v>1296610</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4933,23 +4933,23 @@
         <v>101</v>
       </c>
       <c r="B6">
-        <v>978011</v>
+        <v>1018354</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>818990</v>
+        <v>847393</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>794328</v>
+        <v>830548</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>557928</v>
+        <v>579433</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>158</v>
       </c>
       <c r="B10">
-        <v>365179</v>
+        <v>473116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>159</v>
       </c>
       <c r="B11">
-        <v>365179</v>
+        <v>473116</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>105</v>
       </c>
       <c r="B12">
-        <v>311782</v>
+        <v>336188</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>106</v>
       </c>
       <c r="B13">
-        <v>284844</v>
+        <v>303531</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>110</v>
       </c>
       <c r="B14">
-        <v>182431</v>
+        <v>189848</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>160</v>
       </c>
       <c r="B15">
-        <v>169834</v>
+        <v>179542</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>161</v>
       </c>
       <c r="B16">
-        <v>77822</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>162</v>
       </c>
       <c r="B17">
-        <v>77822</v>
+        <v>78952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>111</v>
       </c>
       <c r="B18">
-        <v>50732</v>
+        <v>53227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>117</v>
       </c>
       <c r="B19">
-        <v>14501</v>
+        <v>14840</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>163</v>
       </c>
       <c r="B20">
-        <v>10201</v>
+        <v>10488</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>112</v>
       </c>
       <c r="B21">
-        <v>8549</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>164</v>
       </c>
       <c r="B22">
-        <v>6358</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>165</v>
       </c>
       <c r="B23">
-        <v>5923</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>166</v>
       </c>
       <c r="B24">
-        <v>5923</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>116</v>
       </c>
       <c r="B25">
-        <v>4861</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>1876</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>167</v>
       </c>
       <c r="B27">
-        <v>1080</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5149,10 +5149,10 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C2">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5160,10 +5160,10 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5171,10 +5171,10 @@
         <v>110</v>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C4">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5182,10 +5182,10 @@
         <v>156</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5193,10 +5193,10 @@
         <v>157</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5204,10 +5204,10 @@
         <v>163</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5223,13 +5223,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5475,10 +5475,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2">
-        <v>305870</v>
+        <v>320681</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5486,71 +5486,71 @@
         <v>97</v>
       </c>
       <c r="B3">
-        <v>138148</v>
+        <v>147082</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>91548</v>
+        <v>94648</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B5">
-        <v>88196</v>
+        <v>88452</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>72914</v>
+        <v>73359</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>69514</v>
+        <v>59477</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B8">
-        <v>56458</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9">
-        <v>45584</v>
+        <v>49556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>45584</v>
+        <v>36609</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B11">
-        <v>33634</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>106</v>
       </c>
       <c r="B12">
-        <v>21409</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>158</v>
       </c>
       <c r="B13">
-        <v>21192</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>159</v>
       </c>
       <c r="B14">
-        <v>21192</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>160</v>
       </c>
       <c r="B15">
-        <v>19423</v>
+        <v>20231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>168</v>
       </c>
       <c r="B16">
-        <v>15567</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>169</v>
       </c>
       <c r="B17">
-        <v>15567</v>
+        <v>16317</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>111</v>
       </c>
       <c r="B18">
-        <v>15268</v>
+        <v>15897</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>165</v>
       </c>
       <c r="B19">
-        <v>13100</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>166</v>
       </c>
       <c r="B20">
-        <v>13100</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>161</v>
       </c>
       <c r="B21">
-        <v>10989</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>162</v>
       </c>
       <c r="B22">
-        <v>10989</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5646,23 +5646,23 @@
         <v>163</v>
       </c>
       <c r="B23">
-        <v>9048</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B24">
-        <v>6876</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B25">
-        <v>6334</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>167</v>
       </c>
       <c r="B26">
-        <v>4933</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>117</v>
       </c>
       <c r="B27">
-        <v>4779</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>164</v>
       </c>
       <c r="B28">
-        <v>1274</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>118</v>
       </c>
       <c r="B29">
-        <v>459</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 1.xlsx
@@ -54,12 +54,12 @@
     <t>Don Diablo</t>
   </si>
   <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
     <t>KEVU</t>
   </si>
   <si>
-    <t>Kaskade</t>
-  </si>
-  <si>
     <t>Kirara Magic</t>
   </si>
   <si>
@@ -108,12 +108,12 @@
     <t>Matt Nash, Lucas Marx</t>
   </si>
   <si>
+    <t>Polygon, Martin Jasper</t>
+  </si>
+  <si>
     <t>Malarkey</t>
   </si>
   <si>
-    <t>Polygon, Martin Jasper</t>
-  </si>
-  <si>
     <t>Lulleaux</t>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t>NUZB</t>
   </si>
   <si>
+    <t>Maurice Lessing</t>
+  </si>
+  <si>
     <t>Body Ocean</t>
   </si>
   <si>
-    <t>Maurice Lessing</t>
-  </si>
-  <si>
     <t>REGGIO, Rave Republic</t>
   </si>
   <si>
@@ -192,12 +192,12 @@
     <t>Into The Unknown</t>
   </si>
   <si>
+    <t>Closer</t>
+  </si>
+  <si>
     <t>Melody</t>
   </si>
   <si>
-    <t>Closer</t>
-  </si>
-  <si>
     <t>Wraith</t>
   </si>
   <si>
@@ -246,12 +246,12 @@
     <t>Midnight</t>
   </si>
   <si>
+    <t>Coming Home</t>
+  </si>
+  <si>
     <t>Shackles (Praise You)</t>
   </si>
   <si>
-    <t>Coming Home</t>
-  </si>
-  <si>
     <t>Even If You Don't</t>
   </si>
   <si>
@@ -267,12 +267,12 @@
     <t>Nighttime</t>
   </si>
   <si>
+    <t>Never Let You Go</t>
+  </si>
+  <si>
     <t>Once The Music</t>
   </si>
   <si>
-    <t>Never Let You Go</t>
-  </si>
-  <si>
     <t>Legacy</t>
   </si>
   <si>
@@ -330,10 +330,10 @@
     <t>HEXAGON</t>
   </si>
   <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
-    <t>Monstercat</t>
   </si>
   <si>
     <t>NONE</t>
@@ -920,7 +920,7 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>2631252</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -934,7 +934,7 @@
         <v>98</v>
       </c>
       <c r="D3">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -948,7 +948,7 @@
         <v>99</v>
       </c>
       <c r="D4">
-        <v>1220449</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -962,7 +962,7 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <v>955772</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -976,7 +976,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>830548</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -990,7 +990,7 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>695603</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1004,7 +1004,7 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>473116</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1018,7 +1018,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>416185</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1032,7 +1032,7 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>364686</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1046,7 +1046,7 @@
         <v>105</v>
       </c>
       <c r="D11">
-        <v>336188</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1060,7 +1060,7 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>303531</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1074,7 +1074,7 @@
         <v>107</v>
       </c>
       <c r="D13">
-        <v>227242</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1085,10 +1085,10 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>187158</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1102,7 +1102,7 @@
         <v>108</v>
       </c>
       <c r="D15">
-        <v>150182</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1116,7 +1116,7 @@
         <v>107</v>
       </c>
       <c r="D16">
-        <v>129542</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1127,10 +1127,10 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>129229</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1144,7 +1144,7 @@
         <v>104</v>
       </c>
       <c r="D18">
-        <v>119609</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1158,7 +1158,7 @@
         <v>104</v>
       </c>
       <c r="D19">
-        <v>116440</v>
+        <v>110071</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1169,10 +1169,10 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20">
-        <v>114821</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1186,7 +1186,7 @@
         <v>107</v>
       </c>
       <c r="D21">
-        <v>81963</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>109</v>
       </c>
       <c r="D22">
-        <v>78952</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>110</v>
       </c>
       <c r="D23">
-        <v>71826</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1228,7 +1228,7 @@
         <v>104</v>
       </c>
       <c r="D24">
-        <v>66907</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1242,7 +1242,7 @@
         <v>107</v>
       </c>
       <c r="D25">
-        <v>61794</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1253,10 +1253,10 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>53132</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1267,10 +1267,10 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D27">
-        <v>52061</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>101</v>
       </c>
       <c r="D28">
-        <v>47650</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>101</v>
       </c>
       <c r="D29">
-        <v>42427</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1312,7 +1312,7 @@
         <v>110</v>
       </c>
       <c r="D30">
-        <v>40015</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1326,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="D31">
-        <v>34164</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1340,7 +1340,7 @@
         <v>107</v>
       </c>
       <c r="D32">
-        <v>31171</v>
+        <v>30074</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1351,10 +1351,10 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>30210</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34">
-        <v>29360</v>
+        <v>28682</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1382,7 +1382,7 @@
         <v>110</v>
       </c>
       <c r="D35">
-        <v>22164</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>107</v>
       </c>
       <c r="D36">
-        <v>17511</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>110</v>
       </c>
       <c r="D37">
-        <v>11191</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1424,7 +1424,7 @@
         <v>112</v>
       </c>
       <c r="D38">
-        <v>8751</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>7950</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1452,7 +1452,7 @@
         <v>114</v>
       </c>
       <c r="D40">
-        <v>6530</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>115</v>
       </c>
       <c r="D41">
-        <v>6045</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>116</v>
       </c>
       <c r="D42">
-        <v>5425</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1494,7 +1494,7 @@
         <v>117</v>
       </c>
       <c r="D43">
-        <v>4216</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>117</v>
       </c>
       <c r="D44">
-        <v>4094</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1522,7 +1522,7 @@
         <v>113</v>
       </c>
       <c r="D45">
-        <v>2538</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>118</v>
       </c>
       <c r="D46">
-        <v>2050</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1550,7 +1550,7 @@
         <v>119</v>
       </c>
       <c r="D47">
-        <v>1166</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -1611,58 +1611,58 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1693,10 +1693,10 @@
         <v>101</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1710,10 +1710,10 @@
         <v>107</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1727,18 +1727,18 @@
         <v>107</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1781,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1820,36 +1820,36 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
       <c r="E16">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1956,19 +1956,19 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>12</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1982,10 +1982,10 @@
         <v>110</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2007,13 +2007,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -2030,7 +2030,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2098,7 +2098,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>111</v>
@@ -2166,7 +2166,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2434,7 +2434,7 @@
         <v>97</v>
       </c>
       <c r="D2">
-        <v>147082</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2445,10 +2445,10 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>99991</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2462,21 +2462,21 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5">
-        <v>89181</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2487,10 +2487,10 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>69549</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2501,10 +2501,10 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>61960</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2518,21 +2518,21 @@
         <v>98</v>
       </c>
       <c r="D8">
-        <v>49556</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>36609</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2546,105 +2546,105 @@
         <v>99</v>
       </c>
       <c r="D10">
-        <v>35234</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>29971</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>22750</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>22157</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14">
-        <v>20881</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15">
-        <v>20178</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D16">
-        <v>18836</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
       </c>
       <c r="D17">
-        <v>17374</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2658,382 +2658,382 @@
         <v>110</v>
       </c>
       <c r="D18">
-        <v>17079</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>101</v>
       </c>
       <c r="D19">
-        <v>16918</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D20">
-        <v>16317</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>16197</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>14922</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>13578</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>13578</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>13061</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>11527</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>10788</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D28">
-        <v>10398</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
       </c>
       <c r="D29">
-        <v>9833</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>8691</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
       </c>
       <c r="D31">
-        <v>8528</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>8088</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D33">
-        <v>7162</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34">
-        <v>7056</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>6899</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D36">
-        <v>5109</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D37">
-        <v>4157</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38">
-        <v>2165</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>1502</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
         <v>117</v>
       </c>
       <c r="D40">
-        <v>1472</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41">
-        <v>1376</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42">
-        <v>503</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2631252</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>124</v>
       </c>
       <c r="B4">
-        <v>1220449</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>1220449</v>
+        <v>1197598</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>955772</v>
+        <v>936064</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>126</v>
       </c>
       <c r="B7">
-        <v>830548</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>127</v>
       </c>
       <c r="B8">
-        <v>830548</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>695603</v>
+        <v>673909</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>473116</v>
+        <v>385867</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>416185</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>364686</v>
+        <v>318074</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>336188</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>303531</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>227242</v>
+        <v>218096</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3219,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>187158</v>
+        <v>176822</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>150182</v>
+        <v>140727</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3235,7 +3235,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>129542</v>
+        <v>124757</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>128</v>
       </c>
       <c r="B19">
-        <v>129229</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>129</v>
       </c>
       <c r="B20">
-        <v>129229</v>
+        <v>124436</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3259,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>119609</v>
+        <v>115103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3267,7 +3267,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>116440</v>
+        <v>110071</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3275,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>114821</v>
+        <v>107203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>81963</v>
+        <v>79132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>78952</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>130</v>
       </c>
       <c r="B26">
-        <v>71826</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3307,7 +3307,7 @@
         <v>131</v>
       </c>
       <c r="B27">
-        <v>71826</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>66907</v>
+        <v>63380</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>132</v>
       </c>
       <c r="B29">
-        <v>61794</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3331,31 +3331,31 @@
         <v>133</v>
       </c>
       <c r="B30">
-        <v>61794</v>
+        <v>59890</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B31">
-        <v>53132</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32">
-        <v>52061</v>
+        <v>49652</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>52061</v>
+        <v>48234</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3363,7 +3363,7 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>47650</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>42427</v>
+        <v>41511</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>136</v>
       </c>
       <c r="B36">
-        <v>40015</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3387,7 +3387,7 @@
         <v>137</v>
       </c>
       <c r="B37">
-        <v>40015</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>138</v>
       </c>
       <c r="B38">
-        <v>34164</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>139</v>
       </c>
       <c r="B39">
-        <v>34164</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>140</v>
       </c>
       <c r="B40">
-        <v>34164</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>31171</v>
+        <v>30074</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>35</v>
       </c>
       <c r="B42">
-        <v>30210</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3435,7 +3435,7 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <v>29360</v>
+        <v>28682</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3443,7 +3443,7 @@
         <v>141</v>
       </c>
       <c r="B44">
-        <v>22164</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3451,7 +3451,7 @@
         <v>142</v>
       </c>
       <c r="B45">
-        <v>22164</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3459,7 +3459,7 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>17511</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>144</v>
       </c>
       <c r="B47">
-        <v>17511</v>
+        <v>17297</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>145</v>
       </c>
       <c r="B48">
-        <v>11191</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3483,7 +3483,7 @@
         <v>146</v>
       </c>
       <c r="B49">
-        <v>11191</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>147</v>
       </c>
       <c r="B50">
-        <v>11191</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>40</v>
       </c>
       <c r="B51">
-        <v>8751</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3507,7 +3507,7 @@
         <v>148</v>
       </c>
       <c r="B52">
-        <v>7950</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>149</v>
       </c>
       <c r="B53">
-        <v>7950</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>42</v>
       </c>
       <c r="B54">
-        <v>6530</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3531,7 +3531,7 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>6045</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>150</v>
       </c>
       <c r="B56">
-        <v>5425</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>151</v>
       </c>
       <c r="B57">
-        <v>5425</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3555,7 +3555,7 @@
         <v>45</v>
       </c>
       <c r="B58">
-        <v>4216</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3563,7 +3563,7 @@
         <v>46</v>
       </c>
       <c r="B59">
-        <v>4094</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3571,7 +3571,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>2538</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3579,7 +3579,7 @@
         <v>152</v>
       </c>
       <c r="B61">
-        <v>2050</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>153</v>
       </c>
       <c r="B62">
-        <v>2050</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3595,7 +3595,7 @@
         <v>49</v>
       </c>
       <c r="B63">
-        <v>1166</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3640,46 +3640,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3690,7 +3690,7 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3701,7 +3701,7 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3709,10 +3709,10 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3720,10 +3720,10 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3731,15 +3731,15 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>34</v>
@@ -3778,7 +3778,7 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3827,46 +3827,46 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B21">
         <v>25</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B22">
         <v>25</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3959,13 +3959,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3973,10 +3973,10 @@
         <v>145</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3984,10 +3984,10 @@
         <v>146</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3995,10 +3995,10 @@
         <v>147</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4014,7 +4014,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>147082</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>128</v>
       </c>
       <c r="B3">
-        <v>99991</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>129</v>
       </c>
       <c r="B4">
-        <v>99991</v>
+        <v>96907</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>126</v>
       </c>
       <c r="B5">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4400,15 +4400,15 @@
         <v>127</v>
       </c>
       <c r="B6">
-        <v>94648</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>89181</v>
+        <v>84178</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>69549</v>
+        <v>66583</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>61960</v>
+        <v>58202</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4432,15 +4432,15 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>49556</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>36609</v>
+        <v>39031</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>124</v>
       </c>
       <c r="B12">
-        <v>35234</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4456,63 +4456,63 @@
         <v>125</v>
       </c>
       <c r="B13">
-        <v>35234</v>
+        <v>33883</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>29971</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>22750</v>
+        <v>28389</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>22157</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>20881</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>20178</v>
+        <v>20019</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>18836</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>17374</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>141</v>
       </c>
       <c r="B21">
-        <v>17079</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4528,324 +4528,324 @@
         <v>142</v>
       </c>
       <c r="B22">
-        <v>17079</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>16918</v>
+        <v>16246</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>16317</v>
+        <v>16165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25">
-        <v>16317</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="B26">
-        <v>16197</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>14922</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>13578</v>
+        <v>14089</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>13578</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="B30">
-        <v>13578</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B31">
-        <v>13061</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32">
-        <v>13061</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="B33">
-        <v>11527</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>10788</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35">
-        <v>10788</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="B36">
-        <v>10398</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>9833</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>8691</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B39">
-        <v>8691</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>8528</v>
+        <v>9013</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="B41">
-        <v>8088</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B42">
-        <v>7162</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>7162</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>7056</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>6899</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46">
-        <v>6899</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47">
-        <v>6899</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B48">
-        <v>5109</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B49">
-        <v>4157</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B50">
-        <v>4157</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>4157</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="B52">
-        <v>2165</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B53">
-        <v>1502</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54">
-        <v>1502</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55">
-        <v>1472</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B56">
-        <v>1376</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B57">
-        <v>503</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B58">
-        <v>503</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>97</v>
       </c>
       <c r="B2">
-        <v>2631252</v>
+        <v>2443226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>99</v>
       </c>
       <c r="B3">
-        <v>2176221</v>
+        <v>2133662</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>156</v>
       </c>
       <c r="B4">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>157</v>
       </c>
       <c r="B5">
-        <v>1296610</v>
+        <v>1215313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4933,23 +4933,23 @@
         <v>101</v>
       </c>
       <c r="B6">
-        <v>1018354</v>
+        <v>978011</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>847393</v>
+        <v>818990</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B8">
-        <v>830548</v>
+        <v>794328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>579433</v>
+        <v>557928</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>158</v>
       </c>
       <c r="B10">
-        <v>473116</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>159</v>
       </c>
       <c r="B11">
-        <v>473116</v>
+        <v>365179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>105</v>
       </c>
       <c r="B12">
-        <v>336188</v>
+        <v>311782</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>106</v>
       </c>
       <c r="B13">
-        <v>303531</v>
+        <v>284844</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>110</v>
       </c>
       <c r="B14">
-        <v>189848</v>
+        <v>182431</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>160</v>
       </c>
       <c r="B15">
-        <v>179542</v>
+        <v>169834</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>161</v>
       </c>
       <c r="B16">
-        <v>78952</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>162</v>
       </c>
       <c r="B17">
-        <v>78952</v>
+        <v>77822</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>111</v>
       </c>
       <c r="B18">
-        <v>53227</v>
+        <v>50732</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>117</v>
       </c>
       <c r="B19">
-        <v>14840</v>
+        <v>14501</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>163</v>
       </c>
       <c r="B20">
-        <v>10488</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>112</v>
       </c>
       <c r="B21">
-        <v>8751</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>164</v>
       </c>
       <c r="B22">
-        <v>6530</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>165</v>
       </c>
       <c r="B23">
-        <v>6045</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>166</v>
       </c>
       <c r="B24">
-        <v>6045</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>116</v>
       </c>
       <c r="B25">
-        <v>5425</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>2050</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>167</v>
       </c>
       <c r="B27">
-        <v>1166</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5149,10 +5149,10 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C2">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5160,10 +5160,10 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5171,10 +5171,10 @@
         <v>110</v>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5182,10 +5182,10 @@
         <v>156</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5193,10 +5193,10 @@
         <v>157</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5204,10 +5204,10 @@
         <v>163</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5223,13 +5223,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5475,10 +5475,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>320681</v>
+        <v>305870</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5486,71 +5486,71 @@
         <v>97</v>
       </c>
       <c r="B3">
-        <v>147082</v>
+        <v>138148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B4">
-        <v>94648</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>88452</v>
+        <v>88196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6">
-        <v>73359</v>
+        <v>72914</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>59477</v>
+        <v>69514</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="B8">
-        <v>49556</v>
+        <v>56458</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9">
-        <v>49556</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B10">
-        <v>36609</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B11">
-        <v>35234</v>
+        <v>33634</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5558,7 +5558,7 @@
         <v>106</v>
       </c>
       <c r="B12">
-        <v>22750</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>158</v>
       </c>
       <c r="B13">
-        <v>22157</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5574,7 +5574,7 @@
         <v>159</v>
       </c>
       <c r="B14">
-        <v>22157</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5582,7 +5582,7 @@
         <v>160</v>
       </c>
       <c r="B15">
-        <v>20231</v>
+        <v>19423</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5590,7 +5590,7 @@
         <v>168</v>
       </c>
       <c r="B16">
-        <v>16317</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5598,7 +5598,7 @@
         <v>169</v>
       </c>
       <c r="B17">
-        <v>16317</v>
+        <v>15567</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5606,7 +5606,7 @@
         <v>111</v>
       </c>
       <c r="B18">
-        <v>15897</v>
+        <v>15268</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5614,7 +5614,7 @@
         <v>165</v>
       </c>
       <c r="B19">
-        <v>13578</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5622,7 +5622,7 @@
         <v>166</v>
       </c>
       <c r="B20">
-        <v>13578</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5630,7 +5630,7 @@
         <v>161</v>
       </c>
       <c r="B21">
-        <v>11527</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5638,7 +5638,7 @@
         <v>162</v>
       </c>
       <c r="B22">
-        <v>11527</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5646,23 +5646,23 @@
         <v>163</v>
       </c>
       <c r="B23">
-        <v>9590</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B24">
-        <v>7162</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B25">
-        <v>7056</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5670,7 +5670,7 @@
         <v>167</v>
       </c>
       <c r="B26">
-        <v>5109</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5678,7 +5678,7 @@
         <v>117</v>
       </c>
       <c r="B27">
-        <v>5013</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5686,7 +5686,7 @@
         <v>164</v>
       </c>
       <c r="B28">
-        <v>1376</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5694,7 +5694,7 @@
         <v>118</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
